--- a/Code/Results/Cases/Case_3_204/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_204/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.74328589340517</v>
+        <v>18.91727032928506</v>
       </c>
       <c r="C2">
-        <v>22.65981528858133</v>
+        <v>16.09710850822301</v>
       </c>
       <c r="D2">
-        <v>4.709061254858563</v>
+        <v>7.879781859840354</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>43.23640946752197</v>
+        <v>45.18703441539783</v>
       </c>
       <c r="G2">
-        <v>2.070382483133618</v>
+        <v>3.694307544394126</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>23.68693796058627</v>
+        <v>28.2426519515638</v>
       </c>
       <c r="J2">
-        <v>8.307423258001071</v>
+        <v>11.47564482662765</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.96356695726388</v>
+        <v>18.42430170994087</v>
       </c>
       <c r="C3">
-        <v>21.01023377252621</v>
+        <v>15.58282759897601</v>
       </c>
       <c r="D3">
-        <v>4.524139295570865</v>
+        <v>7.872716041014177</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>41.20785943925173</v>
+        <v>44.89350579763195</v>
       </c>
       <c r="G3">
-        <v>2.083886738231208</v>
+        <v>3.698816428990268</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>23.02326785435636</v>
+        <v>28.20978354406167</v>
       </c>
       <c r="J3">
-        <v>8.025305310038897</v>
+        <v>11.46585429578151</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.8174469223687</v>
+        <v>18.12066903969581</v>
       </c>
       <c r="C4">
-        <v>19.95235558306112</v>
+        <v>15.26374942226611</v>
       </c>
       <c r="D4">
-        <v>4.408751989104831</v>
+        <v>7.869580968758901</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>39.97469727008929</v>
+        <v>44.72686942835847</v>
       </c>
       <c r="G4">
-        <v>2.092312406826608</v>
+        <v>3.701723984364614</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>22.64047224831244</v>
+        <v>28.19752053530451</v>
       </c>
       <c r="J4">
-        <v>7.855900212110344</v>
+        <v>11.46241267123784</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.3367104803357</v>
+        <v>17.99690472198348</v>
       </c>
       <c r="C5">
-        <v>19.5097026654439</v>
+        <v>15.13311860654594</v>
       </c>
       <c r="D5">
-        <v>4.36132514382522</v>
+        <v>7.868608225489491</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>39.47551317849514</v>
+        <v>44.6624212837189</v>
       </c>
       <c r="G5">
-        <v>2.095784328291688</v>
+        <v>3.702943960910533</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>22.49047026418257</v>
+        <v>28.19450499335422</v>
       </c>
       <c r="J5">
-        <v>7.787840819689093</v>
+        <v>11.46165612716688</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.25605094861406</v>
+        <v>17.97635804810918</v>
       </c>
       <c r="C6">
-        <v>19.43549628181666</v>
+        <v>15.11139793282675</v>
       </c>
       <c r="D6">
-        <v>4.353427339020628</v>
+        <v>7.868465175521076</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>39.39283441588108</v>
+        <v>44.65192957450044</v>
       </c>
       <c r="G6">
-        <v>2.096363285680445</v>
+        <v>3.703148662917167</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>22.46591795107416</v>
+        <v>28.19412364720083</v>
       </c>
       <c r="J6">
-        <v>7.776599076353712</v>
+        <v>11.46156950156162</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.81101927430553</v>
+        <v>18.11899975923024</v>
       </c>
       <c r="C7">
-        <v>19.94643289383619</v>
+        <v>15.2619898225019</v>
       </c>
       <c r="D7">
-        <v>4.408113932487877</v>
+        <v>7.869566612920699</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>39.96795119878193</v>
+        <v>44.72598621106422</v>
       </c>
       <c r="G7">
-        <v>2.092359069045793</v>
+        <v>3.70174029497755</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>22.63842530347725</v>
+        <v>28.19747185635746</v>
       </c>
       <c r="J7">
-        <v>7.854978367047953</v>
+        <v>11.46239985343415</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.14054658074738</v>
+        <v>18.74761294161035</v>
       </c>
       <c r="C8">
-        <v>22.10022927654473</v>
+        <v>15.92060299290189</v>
       </c>
       <c r="D8">
-        <v>4.645714974259972</v>
+        <v>7.877097176778373</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>42.5344973711674</v>
+        <v>45.08303082971972</v>
       </c>
       <c r="G8">
-        <v>2.075013919263991</v>
+        <v>3.695833432395918</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>23.45284267110685</v>
+        <v>28.22967035357515</v>
       </c>
       <c r="J8">
-        <v>8.209362517068891</v>
+        <v>11.4717356580521</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.29889852397492</v>
+        <v>19.96417708372157</v>
       </c>
       <c r="C9">
-        <v>25.97962741204616</v>
+        <v>17.17667444458284</v>
       </c>
       <c r="D9">
-        <v>5.094964111461678</v>
+        <v>7.901310672292378</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>47.66264411845786</v>
+        <v>45.88896817776587</v>
       </c>
       <c r="G9">
-        <v>2.041822699622314</v>
+        <v>3.685346753915231</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>25.25660839551511</v>
+        <v>28.35598060409447</v>
       </c>
       <c r="J9">
-        <v>8.934638801153294</v>
+        <v>11.51042842587452</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.1260336888907</v>
+        <v>20.83735684119504</v>
       </c>
       <c r="C10">
-        <v>28.64216698639576</v>
+        <v>18.06670601399976</v>
       </c>
       <c r="D10">
-        <v>5.412866541834311</v>
+        <v>7.924715817780902</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>51.49671780125485</v>
+        <v>46.54237947773884</v>
       </c>
       <c r="G10">
-        <v>2.017549488840801</v>
+        <v>3.67830107950354</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>26.7251741083273</v>
+        <v>28.48764073838049</v>
       </c>
       <c r="J10">
-        <v>9.487491622661389</v>
+        <v>11.55125345987641</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.36851133920862</v>
+        <v>21.22806744095283</v>
       </c>
       <c r="C11">
-        <v>29.81888672810641</v>
+        <v>18.46245584547413</v>
       </c>
       <c r="D11">
-        <v>5.554650641751294</v>
+        <v>7.936549880488933</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>53.26131273822993</v>
+        <v>46.85214330352358</v>
       </c>
       <c r="G11">
-        <v>2.006425706707534</v>
+        <v>3.675236815815827</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>27.42931633832307</v>
+        <v>28.55600984073613</v>
       </c>
       <c r="J11">
-        <v>9.744178251987723</v>
+        <v>11.57250255412148</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.83331909786292</v>
+        <v>21.37493146533995</v>
       </c>
       <c r="C12">
-        <v>30.26015567156627</v>
+        <v>18.61085684022893</v>
       </c>
       <c r="D12">
-        <v>5.607932310746301</v>
+        <v>7.941198826040194</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>53.93328124029101</v>
+        <v>46.9711690590385</v>
       </c>
       <c r="G12">
-        <v>2.002190950097614</v>
+        <v>3.6740965518133</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>27.7016751906817</v>
+        <v>28.58311785722013</v>
       </c>
       <c r="J12">
-        <v>9.842238687976796</v>
+        <v>11.58093198142151</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.73345729326203</v>
+        <v>21.34335245090674</v>
       </c>
       <c r="C13">
-        <v>30.16530177148656</v>
+        <v>18.57896319135498</v>
       </c>
       <c r="D13">
-        <v>5.596475229297862</v>
+        <v>7.940190186044531</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>53.78837763303017</v>
+        <v>46.94545926984628</v>
       </c>
       <c r="G13">
-        <v>2.003104168587261</v>
+        <v>3.674341236193045</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>27.64275387610982</v>
+        <v>28.5772255172522</v>
       </c>
       <c r="J13">
-        <v>9.821079182030051</v>
+        <v>11.57909956508093</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.40686175733956</v>
+        <v>21.24017270818947</v>
       </c>
       <c r="C14">
-        <v>29.85527293298276</v>
+        <v>18.47469495393733</v>
       </c>
       <c r="D14">
-        <v>5.559042316957483</v>
+        <v>7.936929010027646</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>53.31651501480803</v>
+        <v>46.86190150394145</v>
       </c>
       <c r="G14">
-        <v>2.006077828070142</v>
+        <v>3.675142603499511</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>27.45160544686274</v>
+        <v>28.55821563187023</v>
       </c>
       <c r="J14">
-        <v>9.752227738484534</v>
+        <v>11.5731883891805</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.20609017991798</v>
+        <v>21.1768258770771</v>
       </c>
       <c r="C15">
-        <v>29.66482817566823</v>
+        <v>18.41063327823133</v>
       </c>
       <c r="D15">
-        <v>5.53606048864958</v>
+        <v>7.93495318550383</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>53.02800372984916</v>
+        <v>46.81094226934237</v>
       </c>
       <c r="G15">
-        <v>2.007896011209457</v>
+        <v>3.675636078142801</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>27.33528362377443</v>
+        <v>28.5467301077959</v>
       </c>
       <c r="J15">
-        <v>9.710170126061685</v>
+        <v>11.569617410432</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.04400476180613</v>
+        <v>20.81167862310864</v>
       </c>
       <c r="C16">
-        <v>28.5646229306624</v>
+        <v>18.04064609583353</v>
       </c>
       <c r="D16">
-        <v>5.403543212894209</v>
+        <v>7.923966061171478</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>51.38187188014766</v>
+        <v>46.52238129406132</v>
       </c>
       <c r="G16">
-        <v>2.018273939450033</v>
+        <v>3.678504157950837</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>26.67992510807937</v>
+        <v>28.48334320082168</v>
       </c>
       <c r="J16">
-        <v>9.470829681297104</v>
+        <v>11.54991848532456</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.32031807785422</v>
+        <v>20.58589294961096</v>
       </c>
       <c r="C17">
-        <v>27.88126383238067</v>
+        <v>17.81122211897397</v>
       </c>
       <c r="D17">
-        <v>5.321517871826247</v>
+        <v>7.917527695622977</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>50.37775098017327</v>
+        <v>46.34851341379754</v>
       </c>
       <c r="G17">
-        <v>2.024612501815435</v>
+        <v>3.680299601663347</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>26.28746336813668</v>
+        <v>28.44662844268648</v>
       </c>
       <c r="J17">
-        <v>9.325399014410525</v>
+        <v>11.53851821636934</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.89992908704781</v>
+        <v>20.45542329161684</v>
       </c>
       <c r="C18">
-        <v>27.48492431146417</v>
+        <v>17.67841196045125</v>
       </c>
       <c r="D18">
-        <v>5.274071933900049</v>
+        <v>7.913936428045868</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>49.80206761834575</v>
+        <v>46.24969283990302</v>
       </c>
       <c r="G18">
-        <v>2.028251315348174</v>
+        <v>3.681345559601539</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>26.0650883451817</v>
+        <v>28.4263090798669</v>
       </c>
       <c r="J18">
-        <v>9.242230810723823</v>
+        <v>11.53221326823739</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.75686484272814</v>
+        <v>20.41114973864503</v>
       </c>
       <c r="C19">
-        <v>27.35014822489325</v>
+        <v>17.63330324022532</v>
       </c>
       <c r="D19">
-        <v>5.257961928187211</v>
+        <v>7.912739797903128</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>49.60745055503094</v>
+        <v>46.21643942678003</v>
       </c>
       <c r="G19">
-        <v>2.02948245487183</v>
+        <v>3.681701985970987</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>25.99035872305184</v>
+        <v>28.41956633986357</v>
       </c>
       <c r="J19">
-        <v>9.214151099663987</v>
+        <v>11.53012189327647</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.39778071702894</v>
+        <v>20.60999186186366</v>
       </c>
       <c r="C20">
-        <v>27.95434481992391</v>
+        <v>17.83573394855056</v>
       </c>
       <c r="D20">
-        <v>5.33027730839235</v>
+        <v>7.918201510019697</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>50.48444385310542</v>
+        <v>46.36689998216607</v>
       </c>
       <c r="G20">
-        <v>2.023938542666798</v>
+        <v>3.680107101684185</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>26.32889056357117</v>
+        <v>28.45045420118293</v>
       </c>
       <c r="J20">
-        <v>9.340830029177535</v>
+        <v>11.53970570864908</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.50294015228975</v>
+        <v>21.27050983744641</v>
       </c>
       <c r="C21">
-        <v>29.94644781624436</v>
+        <v>18.50536181115476</v>
       </c>
       <c r="D21">
-        <v>5.57004831966107</v>
+        <v>7.937882371467005</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>53.45500263113142</v>
+        <v>46.88639825731783</v>
       </c>
       <c r="G21">
-        <v>2.005205095311981</v>
+        <v>3.674906677997874</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>27.50759042614857</v>
+        <v>28.56376625221538</v>
       </c>
       <c r="J21">
-        <v>9.772426665086057</v>
+        <v>11.57491427372447</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.84595281937713</v>
+        <v>21.69578300748098</v>
       </c>
       <c r="C22">
-        <v>31.22354956981841</v>
+        <v>18.93442962189338</v>
       </c>
       <c r="D22">
-        <v>5.724377559071808</v>
+        <v>7.951720615323405</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>55.418923328052</v>
+        <v>47.23593655129201</v>
       </c>
       <c r="G22">
-        <v>1.992824577900821</v>
+        <v>3.67162502596976</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>28.31159660160139</v>
+        <v>28.64492064887276</v>
       </c>
       <c r="J22">
-        <v>10.05958981812579</v>
+        <v>11.6001553714678</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.1319477434456</v>
+        <v>21.46944121599453</v>
       </c>
       <c r="C23">
-        <v>30.54397052854952</v>
+        <v>18.7062572800284</v>
       </c>
       <c r="D23">
-        <v>5.642223712047325</v>
+        <v>7.944246643395148</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>54.36833456340662</v>
+        <v>47.04849103731014</v>
       </c>
       <c r="G23">
-        <v>1.999448891644692</v>
+        <v>3.673365837241015</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>27.87919460536151</v>
+        <v>28.60095826567749</v>
       </c>
       <c r="J23">
-        <v>9.90581118838136</v>
+        <v>11.58648048437739</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.36277339287758</v>
+        <v>20.59909879521031</v>
       </c>
       <c r="C24">
-        <v>27.92131575094183</v>
+        <v>17.824654977364</v>
       </c>
       <c r="D24">
-        <v>5.326318065342723</v>
+        <v>7.917896534946216</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>50.4362030816509</v>
+        <v>46.35858386307382</v>
       </c>
       <c r="G24">
-        <v>2.024243255364148</v>
+        <v>3.680194088136388</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>26.31015122342111</v>
+        <v>28.44872211991585</v>
       </c>
       <c r="J24">
-        <v>9.333852299051706</v>
+        <v>11.53916806696997</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.21575594759338</v>
+        <v>19.63795192920113</v>
       </c>
       <c r="C25">
-        <v>24.96493680160383</v>
+        <v>16.841891003694</v>
       </c>
       <c r="D25">
-        <v>4.975461761859996</v>
+        <v>7.893763294645977</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>46.26495442332696</v>
+        <v>45.65992324078321</v>
       </c>
       <c r="G25">
-        <v>2.05075051919198</v>
+        <v>3.688067272772163</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>24.74488808650391</v>
+        <v>28.31500391846392</v>
       </c>
       <c r="J25">
-        <v>8.735108886532165</v>
+        <v>11.49777997162415</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_204/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_204/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.91727032928506</v>
+        <v>24.74328589340512</v>
       </c>
       <c r="C2">
-        <v>16.09710850822301</v>
+        <v>22.65981528858131</v>
       </c>
       <c r="D2">
-        <v>7.879781859840354</v>
+        <v>4.709061254858583</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>45.18703441539783</v>
+        <v>43.23640946752211</v>
       </c>
       <c r="G2">
-        <v>3.694307544394126</v>
+        <v>2.070382483133746</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>28.2426519515638</v>
+        <v>23.68693796058638</v>
       </c>
       <c r="J2">
-        <v>11.47564482662765</v>
+        <v>8.307423258001061</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.42430170994087</v>
+        <v>22.96356695726384</v>
       </c>
       <c r="C3">
-        <v>15.58282759897601</v>
+        <v>21.01023377252604</v>
       </c>
       <c r="D3">
-        <v>7.872716041014177</v>
+        <v>4.524139295570771</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>44.89350579763195</v>
+        <v>41.20785943925181</v>
       </c>
       <c r="G3">
-        <v>3.698816428990268</v>
+        <v>2.083886738231075</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>28.20978354406167</v>
+        <v>23.02326785435644</v>
       </c>
       <c r="J3">
-        <v>11.46585429578151</v>
+        <v>8.025305310038904</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.12066903969581</v>
+        <v>21.81744692236877</v>
       </c>
       <c r="C4">
-        <v>15.26374942226611</v>
+        <v>19.95235558306109</v>
       </c>
       <c r="D4">
-        <v>7.869580968758901</v>
+        <v>4.40875198910472</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>44.72686942835847</v>
+        <v>39.97469727008924</v>
       </c>
       <c r="G4">
-        <v>3.701723984364614</v>
+        <v>2.092312406826612</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>28.19752053530451</v>
+        <v>22.64047224831242</v>
       </c>
       <c r="J4">
-        <v>11.46241267123784</v>
+        <v>7.855900212110334</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.99690472198348</v>
+        <v>21.33671048033568</v>
       </c>
       <c r="C5">
-        <v>15.13311860654594</v>
+        <v>19.50970266544382</v>
       </c>
       <c r="D5">
-        <v>7.868608225489491</v>
+        <v>4.361325143825164</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>44.6624212837189</v>
+        <v>39.4755131784952</v>
       </c>
       <c r="G5">
-        <v>3.702943960910533</v>
+        <v>2.095784328291827</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>28.19450499335422</v>
+        <v>22.49047026418264</v>
       </c>
       <c r="J5">
-        <v>11.46165612716688</v>
+        <v>7.787840819689092</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.97635804810918</v>
+        <v>21.25605094861411</v>
       </c>
       <c r="C6">
-        <v>15.11139793282675</v>
+        <v>19.43549628181664</v>
       </c>
       <c r="D6">
-        <v>7.868465175521076</v>
+        <v>4.353427339020636</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>44.65192957450044</v>
+        <v>39.39283441588123</v>
       </c>
       <c r="G6">
-        <v>3.703148662917167</v>
+        <v>2.096363285680446</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>28.19412364720083</v>
+        <v>22.46591795107426</v>
       </c>
       <c r="J6">
-        <v>11.46156950156162</v>
+        <v>7.776599076353727</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.11899975923024</v>
+        <v>21.81101927430556</v>
       </c>
       <c r="C7">
-        <v>15.2619898225019</v>
+        <v>19.94643289383613</v>
       </c>
       <c r="D7">
-        <v>7.869566612920699</v>
+        <v>4.40811393248789</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>44.72598621106422</v>
+        <v>39.96795119878206</v>
       </c>
       <c r="G7">
-        <v>3.70174029497755</v>
+        <v>2.092359069046062</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>28.19747185635746</v>
+        <v>22.63842530347728</v>
       </c>
       <c r="J7">
-        <v>11.46239985343415</v>
+        <v>7.854978367047992</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.74761294161035</v>
+        <v>24.14054658074734</v>
       </c>
       <c r="C8">
-        <v>15.92060299290189</v>
+        <v>22.10022927654467</v>
       </c>
       <c r="D8">
-        <v>7.877097176778373</v>
+        <v>4.645714974259866</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>45.08303082971972</v>
+        <v>42.53449737116735</v>
       </c>
       <c r="G8">
-        <v>3.695833432395918</v>
+        <v>2.075013919264253</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>28.22967035357515</v>
+        <v>23.4528426711069</v>
       </c>
       <c r="J8">
-        <v>11.4717356580521</v>
+        <v>8.209362517068913</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.96417708372157</v>
+        <v>28.29889852397492</v>
       </c>
       <c r="C9">
-        <v>17.17667444458284</v>
+        <v>25.97962741204613</v>
       </c>
       <c r="D9">
-        <v>7.901310672292378</v>
+        <v>5.094964111461688</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>45.88896817776587</v>
+        <v>47.66264411845778</v>
       </c>
       <c r="G9">
-        <v>3.685346753915231</v>
+        <v>2.041822699622183</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>28.35598060409447</v>
+        <v>25.25660839551508</v>
       </c>
       <c r="J9">
-        <v>11.51042842587452</v>
+        <v>8.934638801153248</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.83735684119504</v>
+        <v>31.12603368889075</v>
       </c>
       <c r="C10">
-        <v>18.06670601399976</v>
+        <v>28.64216698639573</v>
       </c>
       <c r="D10">
-        <v>7.924715817780902</v>
+        <v>5.412866541834329</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>46.54237947773884</v>
+        <v>51.49671780125495</v>
       </c>
       <c r="G10">
-        <v>3.67830107950354</v>
+        <v>2.017549488841072</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>28.48764073838049</v>
+        <v>26.72517410832733</v>
       </c>
       <c r="J10">
-        <v>11.55125345987641</v>
+        <v>9.48749162266142</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.22806744095283</v>
+        <v>32.3685113392085</v>
       </c>
       <c r="C11">
-        <v>18.46245584547413</v>
+        <v>29.81888672810632</v>
       </c>
       <c r="D11">
-        <v>7.936549880488933</v>
+        <v>5.554650641751362</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>46.85214330352358</v>
+        <v>53.26131273823</v>
       </c>
       <c r="G11">
-        <v>3.675236815815827</v>
+        <v>2.006425706707545</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>28.55600984073613</v>
+        <v>27.42931633832317</v>
       </c>
       <c r="J11">
-        <v>11.57250255412148</v>
+        <v>9.744178251987751</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.37493146533995</v>
+        <v>32.83331909786288</v>
       </c>
       <c r="C12">
-        <v>18.61085684022893</v>
+        <v>30.26015567156628</v>
       </c>
       <c r="D12">
-        <v>7.941198826040194</v>
+        <v>5.607932310746286</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>46.9711690590385</v>
+        <v>53.93328124029111</v>
       </c>
       <c r="G12">
-        <v>3.6740965518133</v>
+        <v>2.002190950097607</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>28.58311785722013</v>
+        <v>27.70167519068178</v>
       </c>
       <c r="J12">
-        <v>11.58093198142151</v>
+        <v>9.842238687976806</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.34335245090674</v>
+        <v>32.73345729326216</v>
       </c>
       <c r="C13">
-        <v>18.57896319135498</v>
+        <v>30.16530177148656</v>
       </c>
       <c r="D13">
-        <v>7.940190186044531</v>
+        <v>5.596475229297862</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>46.94545926984628</v>
+        <v>53.78837763303025</v>
       </c>
       <c r="G13">
-        <v>3.674341236193045</v>
+        <v>2.003104168587118</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>28.5772255172522</v>
+        <v>27.6427538761098</v>
       </c>
       <c r="J13">
-        <v>11.57909956508093</v>
+        <v>9.82107918203007</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.24017270818947</v>
+        <v>32.40686175733941</v>
       </c>
       <c r="C14">
-        <v>18.47469495393733</v>
+        <v>29.85527293298268</v>
       </c>
       <c r="D14">
-        <v>7.936929010027646</v>
+        <v>5.559042316957503</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>46.86190150394145</v>
+        <v>53.31651501480798</v>
       </c>
       <c r="G14">
-        <v>3.675142603499511</v>
+        <v>2.006077828070142</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>28.55821563187023</v>
+        <v>27.45160544686283</v>
       </c>
       <c r="J14">
-        <v>11.5731883891805</v>
+        <v>9.752227738484521</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.1768258770771</v>
+        <v>32.20609017991796</v>
       </c>
       <c r="C15">
-        <v>18.41063327823133</v>
+        <v>29.66482817566827</v>
       </c>
       <c r="D15">
-        <v>7.93495318550383</v>
+        <v>5.536060488649547</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>46.81094226934237</v>
+        <v>53.02800372984924</v>
       </c>
       <c r="G15">
-        <v>3.675636078142801</v>
+        <v>2.007896011209589</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>28.5467301077959</v>
+        <v>27.33528362377449</v>
       </c>
       <c r="J15">
-        <v>11.569617410432</v>
+        <v>9.710170126061669</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.81167862310864</v>
+        <v>31.04400476180614</v>
       </c>
       <c r="C16">
-        <v>18.04064609583353</v>
+        <v>28.56462293066238</v>
       </c>
       <c r="D16">
-        <v>7.923966061171478</v>
+        <v>5.403543212894185</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>46.52238129406132</v>
+        <v>51.38187188014766</v>
       </c>
       <c r="G16">
-        <v>3.678504157950837</v>
+        <v>2.018273939450033</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>28.48334320082168</v>
+        <v>26.67992510807937</v>
       </c>
       <c r="J16">
-        <v>11.54991848532456</v>
+        <v>9.470829681297106</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.58589294961096</v>
+        <v>30.32031807785424</v>
       </c>
       <c r="C17">
-        <v>17.81122211897397</v>
+        <v>27.88126383238079</v>
       </c>
       <c r="D17">
-        <v>7.917527695622977</v>
+        <v>5.321517871826222</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>46.34851341379754</v>
+        <v>50.3777509801734</v>
       </c>
       <c r="G17">
-        <v>3.680299601663347</v>
+        <v>2.024612501815576</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>28.44662844268648</v>
+        <v>26.28746336813677</v>
       </c>
       <c r="J17">
-        <v>11.53851821636934</v>
+        <v>9.325399014410499</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.45542329161684</v>
+        <v>29.89992908704776</v>
       </c>
       <c r="C18">
-        <v>17.67841196045125</v>
+        <v>27.48492431146414</v>
       </c>
       <c r="D18">
-        <v>7.913936428045868</v>
+        <v>5.274071933899942</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>46.24969283990302</v>
+        <v>49.80206761834572</v>
       </c>
       <c r="G18">
-        <v>3.681345559601539</v>
+        <v>2.028251315348034</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>28.4263090798669</v>
+        <v>26.06508834518172</v>
       </c>
       <c r="J18">
-        <v>11.53221326823739</v>
+        <v>9.242230810723811</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.41114973864503</v>
+        <v>29.7568648427281</v>
       </c>
       <c r="C19">
-        <v>17.63330324022532</v>
+        <v>27.35014822489338</v>
       </c>
       <c r="D19">
-        <v>7.912739797903128</v>
+        <v>5.257961928187225</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>46.21643942678003</v>
+        <v>49.60745055503097</v>
       </c>
       <c r="G19">
-        <v>3.681701985970987</v>
+        <v>2.029482454871569</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>28.41956633986357</v>
+        <v>25.99035872305189</v>
       </c>
       <c r="J19">
-        <v>11.53012189327647</v>
+        <v>9.214151099664006</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.60999186186366</v>
+        <v>30.39778071702897</v>
       </c>
       <c r="C20">
-        <v>17.83573394855056</v>
+        <v>27.95434481992398</v>
       </c>
       <c r="D20">
-        <v>7.918201510019697</v>
+        <v>5.330277308392393</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>46.36689998216607</v>
+        <v>50.48444385310557</v>
       </c>
       <c r="G20">
-        <v>3.680107101684185</v>
+        <v>2.023938542666802</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>28.45045420118293</v>
+        <v>26.32889056357125</v>
       </c>
       <c r="J20">
-        <v>11.53970570864908</v>
+        <v>9.340830029177532</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.27050983744641</v>
+        <v>32.50294015228988</v>
       </c>
       <c r="C21">
-        <v>18.50536181115476</v>
+        <v>29.94644781624446</v>
       </c>
       <c r="D21">
-        <v>7.937882371467005</v>
+        <v>5.570048319661034</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>46.88639825731783</v>
+        <v>53.45500263113173</v>
       </c>
       <c r="G21">
-        <v>3.674906677997874</v>
+        <v>2.005205095311978</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>28.56376625221538</v>
+        <v>27.5075904261487</v>
       </c>
       <c r="J21">
-        <v>11.57491427372447</v>
+        <v>9.772426665086087</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.69578300748098</v>
+        <v>33.84595281937721</v>
       </c>
       <c r="C22">
-        <v>18.93442962189338</v>
+        <v>31.22354956981857</v>
       </c>
       <c r="D22">
-        <v>7.951720615323405</v>
+        <v>5.724377559071792</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>47.23593655129201</v>
+        <v>55.41892332805217</v>
       </c>
       <c r="G22">
-        <v>3.67162502596976</v>
+        <v>1.992824577901084</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>28.64492064887276</v>
+        <v>28.31159660160148</v>
       </c>
       <c r="J22">
-        <v>11.6001553714678</v>
+        <v>10.05958981812577</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.46944121599453</v>
+        <v>33.13194774344559</v>
       </c>
       <c r="C23">
-        <v>18.7062572800284</v>
+        <v>30.54397052854959</v>
       </c>
       <c r="D23">
-        <v>7.944246643395148</v>
+        <v>5.642223712047242</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>47.04849103731014</v>
+        <v>54.36833456340657</v>
       </c>
       <c r="G23">
-        <v>3.673365837241015</v>
+        <v>1.999448891644689</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>28.60095826567749</v>
+        <v>27.87919460536149</v>
       </c>
       <c r="J23">
-        <v>11.58648048437739</v>
+        <v>9.905811188381351</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.59909879521031</v>
+        <v>30.36277339287753</v>
       </c>
       <c r="C24">
-        <v>17.824654977364</v>
+        <v>27.92131575094189</v>
       </c>
       <c r="D24">
-        <v>7.917896534946216</v>
+        <v>5.326318065342702</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>46.35858386307382</v>
+        <v>50.43620308165094</v>
       </c>
       <c r="G24">
-        <v>3.680194088136388</v>
+        <v>2.024243255364151</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>28.44872211991585</v>
+        <v>26.31015122342117</v>
       </c>
       <c r="J24">
-        <v>11.53916806696997</v>
+        <v>9.333852299051708</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.63795192920113</v>
+        <v>27.21575594759346</v>
       </c>
       <c r="C25">
-        <v>16.841891003694</v>
+        <v>24.96493680160392</v>
       </c>
       <c r="D25">
-        <v>7.893763294645977</v>
+        <v>4.975461761859924</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>45.65992324078321</v>
+        <v>46.26495442332706</v>
       </c>
       <c r="G25">
-        <v>3.688067272772163</v>
+        <v>2.050750519191845</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>28.31500391846392</v>
+        <v>24.74488808650398</v>
       </c>
       <c r="J25">
-        <v>11.49777997162415</v>
+        <v>8.735108886532176</v>
       </c>
       <c r="K25">
         <v>0</v>
